--- a/biology/Botanique/Guarea/Guarea.xlsx
+++ b/biology/Botanique/Guarea/Guarea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guarea est un genre de plantes de la famille des Meliaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (7 mars 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (7 mars 2020) :
 Guarea adenophylla Al.Rodr.
 Guarea aguilarii Al.Rodr.
 Guarea anomala T.D.Penn.
@@ -613,7 +629,7 @@
 Guarea venenata T.D.Pennington
 Guarea zarceroensis Coronado
 Guarea zepivae T.D.Penn.
-Selon GRIN            (7 mars 2020)[3] :
+Selon GRIN            (7 mars 2020) :
 Guarea cedrata (A. Chev.) Pellegr.
 Guarea glabra Vahl
 Guarea grandifolia DC.
@@ -622,10 +638,10 @@
 Guarea pterorhachis Harms
 Guarea spp.
 Guarea thompsonii Sprague &amp; Hutch.
-Selon ITIS      (7 mars 2020)[4] :
+Selon ITIS      (7 mars 2020) :
 Guarea glabra Vahl
 Guarea guidonia (L.) Sleumer
-Selon NCBI  (7 mars 2020)[5] :
+Selon NCBI  (7 mars 2020) :
 Guarea anomala
 Guarea bijuga
 Guarea blanchetii
@@ -670,7 +686,7 @@
 Guarea velutina
 Guarea zarceroensis
 Guarea zepivae
-Selon The Plant List            (7 mars 2020)[6] :
+Selon The Plant List            (7 mars 2020) :
 Guarea adenophylla Al.Rodr.
 Guarea aguilarii Al.Rodr.
 Guarea arcuata Coronado
@@ -743,7 +759,7 @@
 Guarea velutina A.Juss.
 Guarea venenata T.D.Penn.
 Guarea zarceroensis Coronado
-Selon Tropicos                                           (7 mars 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 mars 2020) (Attention liste brute contenant possiblement des synonymes) :
 Guarea acreana C. DC.
 Guarea adenocarpa Pittier
 Guarea adenophylla Al. Rodr.
